--- a/api_test/test_data/excel_api.xlsx
+++ b/api_test/test_data/excel_api.xlsx
@@ -1,66 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49173\Desktop\myFile\MoTest\Motest\api_test\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyujie/PycharmProjects/Motest/api_test/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB72E65C-B76D-43C5-B88D-F678134F5BE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9653C66-0965-0141-81FF-193CEF6C508B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>ispass</t>
+  </si>
+  <si>
+    <t>rel</t>
+  </si>
+  <si>
+    <t>/user/send_verification_code_email/</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
+    <t>r2bukrs6@bccto.cc</t>
+  </si>
+  <si>
+    <t>注册/登录时, 发送验证码到邮箱</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>/user/send_verification_code/</t>
+  </si>
+  <si>
+    <t>给手机发送验证码</t>
+  </si>
+  <si>
     <t>/user/check_username_exist</t>
   </si>
   <si>
+    <t>username=luxu99</t>
+  </si>
+  <si>
+    <t>检查用户名是否已存在</t>
+  </si>
+  <si>
     <t>/user/check_email_exist</t>
   </si>
   <si>
+    <t>email=r2bukrs6%40bccto.cc</t>
+  </si>
+  <si>
+    <t>注册时检查邮箱是否已存在</t>
+  </si>
+  <si>
     <t>/user/check_phone_exist</t>
   </si>
   <si>
+    <t>phone=18425267312</t>
+  </si>
+  <si>
+    <t>注册时检查手机号是否已存在</t>
+  </si>
+  <si>
     <t>/user/check_email_belong_user</t>
   </si>
   <si>
+    <t>检查邮箱是否属于用户</t>
+  </si>
+  <si>
     <t>/user/login</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
+    <t>用户账号(用户名/邮箱/手机号)密码登录</t>
+  </si>
+  <si>
+    <t>/user/session_login</t>
+  </si>
+  <si>
+    <t>设置session和cookie</t>
+  </si>
+  <si>
     <t>/user/register</t>
   </si>
   <si>
@@ -136,47 +195,7 @@
     <t>邮箱重置密码</t>
   </si>
   <si>
-    <t>注册/登录时, 发送验证码到邮箱</t>
-  </si>
-  <si>
-    <t>给手机发送验证码</t>
-  </si>
-  <si>
-    <t>检查用户名是否已存在</t>
-  </si>
-  <si>
-    <t>注册时检查邮箱是否已存在</t>
-  </si>
-  <si>
-    <t>注册时检查手机号是否已存在</t>
-  </si>
-  <si>
-    <t>检查邮箱是否属于用户</t>
-  </si>
-  <si>
-    <t>用户账号(用户名/邮箱/手机号)密码登录</t>
-  </si>
-  <si>
-    <t>设置session和cookie</t>
-  </si>
-  <si>
-    <t>/user/session_login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/send_verification_code_email/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/send_verification_code/</t>
+    <t>{"errors": {"new_password": "新密码 Missing required parameter in the JSON body"}, "message": "新密码 Missing required parameter in the JSON body"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,16 +203,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -218,6 +231,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -243,20 +257,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -562,20 +578,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,245 +605,279 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>18425267312</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>12351655243</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{C2CC5543-F2C4-419A-AC22-68050BCDC904}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -834,9 +887,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -848,9 +901,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/api_test/test_data/excel_api.xlsx
+++ b/api_test/test_data/excel_api.xlsx
@@ -1,201 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyujie/PycharmProjects/Motest/api_test/test_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49173\Desktop\myFile\MoTest\Motest\api_test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9653C66-0965-0141-81FF-193CEF6C508B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB72E65C-B76D-43C5-B88D-F678134F5BE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/user/check_username_exist</t>
+  </si>
+  <si>
+    <t>/user/check_email_exist</t>
+  </si>
+  <si>
+    <t>/user/check_phone_exist</t>
+  </si>
+  <si>
+    <t>/user/check_email_belong_user</t>
+  </si>
+  <si>
+    <t>/user/login</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/user/register</t>
+  </si>
+  <si>
+    <t>用户注册</t>
+  </si>
+  <si>
+    <t>/user/temp_user</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>临时用户账号登录</t>
+  </si>
+  <si>
+    <t>/user/login_or_register_phone</t>
+  </si>
+  <si>
+    <t>手机号登录或注册</t>
+  </si>
+  <si>
+    <t>/user/login_with_phone</t>
+  </si>
+  <si>
+    <t>手机号登录</t>
+  </si>
+  <si>
+    <t>/user/register_with_phone</t>
+  </si>
+  <si>
+    <t>手机号注册</t>
+  </si>
+  <si>
+    <t>/user/login_or_register_email</t>
+  </si>
+  <si>
+    <t>邮箱登录或注册</t>
+  </si>
+  <si>
+    <t>/user/login_with_email</t>
+  </si>
+  <si>
+    <t>邮箱登录</t>
+  </si>
+  <si>
+    <t>/user/register_with_email</t>
+  </si>
+  <si>
+    <t>邮箱注册</t>
+  </si>
+  <si>
+    <t>/user/verify_code_phone</t>
+  </si>
+  <si>
+    <t>验证手机验证码</t>
+  </si>
+  <si>
+    <t>/user/reset_password_phone</t>
+  </si>
+  <si>
+    <t>手机重置密码</t>
+  </si>
+  <si>
+    <t>/user/verify_code_email</t>
+  </si>
+  <si>
+    <t>验证邮箱验证码</t>
+  </si>
+  <si>
+    <t>/user/reset_password_email</t>
+  </si>
+  <si>
+    <t>邮箱重置密码</t>
+  </si>
+  <si>
+    <t>注册/登录时, 发送验证码到邮箱</t>
+  </si>
+  <si>
+    <t>给手机发送验证码</t>
+  </si>
+  <si>
+    <t>检查用户名是否已存在</t>
+  </si>
+  <si>
+    <t>注册时检查邮箱是否已存在</t>
+  </si>
+  <si>
+    <t>注册时检查手机号是否已存在</t>
+  </si>
+  <si>
+    <t>检查邮箱是否属于用户</t>
+  </si>
+  <si>
+    <t>用户账号(用户名/邮箱/手机号)密码登录</t>
+  </si>
+  <si>
+    <t>设置session和cookie</t>
+  </si>
+  <si>
+    <t>/user/session_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>parameter</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>ispass</t>
-  </si>
-  <si>
-    <t>rel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/user/send_verification_code_email/</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>r2bukrs6@bccto.cc</t>
-  </si>
-  <si>
-    <t>注册/登录时, 发送验证码到邮箱</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/user/send_verification_code/</t>
-  </si>
-  <si>
-    <t>给手机发送验证码</t>
-  </si>
-  <si>
-    <t>/user/check_username_exist</t>
-  </si>
-  <si>
-    <t>username=luxu99</t>
-  </si>
-  <si>
-    <t>检查用户名是否已存在</t>
-  </si>
-  <si>
-    <t>/user/check_email_exist</t>
-  </si>
-  <si>
-    <t>email=r2bukrs6%40bccto.cc</t>
-  </si>
-  <si>
-    <t>注册时检查邮箱是否已存在</t>
-  </si>
-  <si>
-    <t>/user/check_phone_exist</t>
-  </si>
-  <si>
-    <t>phone=18425267312</t>
-  </si>
-  <si>
-    <t>注册时检查手机号是否已存在</t>
-  </si>
-  <si>
-    <t>/user/check_email_belong_user</t>
-  </si>
-  <si>
-    <t>检查邮箱是否属于用户</t>
-  </si>
-  <si>
-    <t>/user/login</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>用户账号(用户名/邮箱/手机号)密码登录</t>
-  </si>
-  <si>
-    <t>/user/session_login</t>
-  </si>
-  <si>
-    <t>设置session和cookie</t>
-  </si>
-  <si>
-    <t>/user/register</t>
-  </si>
-  <si>
-    <t>用户注册</t>
-  </si>
-  <si>
-    <t>/user/temp_user</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>临时用户账号登录</t>
-  </si>
-  <si>
-    <t>/user/login_or_register_phone</t>
-  </si>
-  <si>
-    <t>手机号登录或注册</t>
-  </si>
-  <si>
-    <t>/user/login_with_phone</t>
-  </si>
-  <si>
-    <t>手机号登录</t>
-  </si>
-  <si>
-    <t>/user/register_with_phone</t>
-  </si>
-  <si>
-    <t>手机号注册</t>
-  </si>
-  <si>
-    <t>/user/login_or_register_email</t>
-  </si>
-  <si>
-    <t>邮箱登录或注册</t>
-  </si>
-  <si>
-    <t>/user/login_with_email</t>
-  </si>
-  <si>
-    <t>邮箱登录</t>
-  </si>
-  <si>
-    <t>/user/register_with_email</t>
-  </si>
-  <si>
-    <t>邮箱注册</t>
-  </si>
-  <si>
-    <t>/user/verify_code_phone</t>
-  </si>
-  <si>
-    <t>验证手机验证码</t>
-  </si>
-  <si>
-    <t>/user/reset_password_phone</t>
-  </si>
-  <si>
-    <t>手机重置密码</t>
-  </si>
-  <si>
-    <t>/user/verify_code_email</t>
-  </si>
-  <si>
-    <t>验证邮箱验证码</t>
-  </si>
-  <si>
-    <t>/user/reset_password_email</t>
-  </si>
-  <si>
-    <t>邮箱重置密码</t>
-  </si>
-  <si>
-    <t>{"errors": {"new_password": "新密码 Missing required parameter in the JSON body"}, "message": "新密码 Missing required parameter in the JSON body"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,10 +184,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -231,7 +218,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -257,22 +243,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -578,23 +562,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,279 +586,245 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>12351655243</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="25.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>18425267312</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A5" t="s">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1">
-      <c r="A6" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" t="s">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C2CC5543-F2C4-419A-AC22-68050BCDC904}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -887,9 +834,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -901,9 +848,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
